--- a/AUDIO/VectorTable.xlsx
+++ b/AUDIO/VectorTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p-carpentier\Documents\PERSO\AMIGA\github_flype44\Vampire\AUDIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B21B4F-9BD7-400E-9236-B4318B1019B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830CDCE-D0DE-44BA-88D1-037F7B948008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2790" windowWidth="18900" windowHeight="11055" xr2:uid="{E4A93907-FBA9-4E4C-8979-55D062219C1C}"/>
+    <workbookView xWindow="5280" yWindow="1905" windowWidth="14055" windowHeight="12630" xr2:uid="{E4A93907-FBA9-4E4C-8979-55D062219C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <t>Priority</t>
   </si>
   <si>
+    <t>Exec Pseudo-Priority</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -123,134 +126,35 @@
     <t>Non-Maskable Interrupt</t>
   </si>
   <si>
-    <t xml:space="preserve">      Exec Pseudo-Priority</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Audio Channel 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp; 6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Audio Channel 0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp; 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Audio Channel 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp; 7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Audio Channel 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp; 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AUD2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AUD0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AUD3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AUD1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;5</t>
-    </r>
+    <t>Audio Channel 2 &amp; 6</t>
+  </si>
+  <si>
+    <t>Audio Channel 0 &amp; 4</t>
+  </si>
+  <si>
+    <t>Audio Channel 3 &amp; 7</t>
+  </si>
+  <si>
+    <t>Audio Channel 1 &amp; 5</t>
+  </si>
+  <si>
+    <t>AUD1 &amp; 5</t>
+  </si>
+  <si>
+    <t>AUD3 &amp; 7</t>
+  </si>
+  <si>
+    <t>AUD0 &amp; 4</t>
+  </si>
+  <si>
+    <t>AUD2 &amp; 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +164,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -268,21 +172,29 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -309,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -318,28 +230,141 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -349,209 +374,184 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,299 +870,299 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13">
-        <v>3</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
-        <v>2</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16">
+        <v>7</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="C11" s="29">
+        <v>8</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13">
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29">
+        <v>9</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29">
+        <v>11</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="C15" s="16">
+        <v>12</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13">
-        <v>6</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="14" t="s">
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13">
-        <v>7</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
-        <v>4</v>
-      </c>
-      <c r="C11" s="21">
-        <v>8</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="21">
-        <v>9</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="21">
-        <v>10</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="21">
-        <v>11</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>5</v>
-      </c>
-      <c r="C15" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13">
-        <v>13</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
         <v>6</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>14</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="20">
+        <v>15</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F18" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="21">
-        <v>15</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="C19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
-        <v>7</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="27" t="s">
         <v>8</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/AUDIO/VectorTable.xlsx
+++ b/AUDIO/VectorTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p-carpentier\Documents\PERSO\AMIGA\github_flype44\Vampire\AUDIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830CDCE-D0DE-44BA-88D1-037F7B948008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E74912-F2F0-4C0A-83EF-9AED64130071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1905" windowWidth="14055" windowHeight="12630" xr2:uid="{E4A93907-FBA9-4E4C-8979-55D062219C1C}"/>
+    <workbookView xWindow="-120" yWindow="345" windowWidth="14055" windowHeight="12630" xr2:uid="{E4A93907-FBA9-4E4C-8979-55D062219C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Hardware</t>
   </si>
@@ -126,35 +126,161 @@
     <t>Non-Maskable Interrupt</t>
   </si>
   <si>
-    <t>Audio Channel 2 &amp; 6</t>
-  </si>
-  <si>
-    <t>Audio Channel 0 &amp; 4</t>
-  </si>
-  <si>
-    <t>Audio Channel 3 &amp; 7</t>
-  </si>
-  <si>
-    <t>Audio Channel 1 &amp; 5</t>
-  </si>
-  <si>
-    <t>AUD1 &amp; 5</t>
-  </si>
-  <si>
-    <t>AUD3 &amp; 7</t>
-  </si>
-  <si>
-    <t>AUD0 &amp; 4</t>
-  </si>
-  <si>
-    <t>AUD2 &amp; 6</t>
+    <r>
+      <t xml:space="preserve">Audio Channel 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Audio Channel 0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Audio Channel 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Audio Channel 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 5</t>
+    </r>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>0x006C</t>
+  </si>
+  <si>
+    <t>0x0070</t>
+  </si>
+  <si>
+    <t>0x0074</t>
+  </si>
+  <si>
+    <t>0x0078</t>
+  </si>
+  <si>
+    <t>0x007C</t>
+  </si>
+  <si>
+    <t>0x0068</t>
+  </si>
+  <si>
+    <t>0x0064</t>
+  </si>
+  <si>
+    <t>Exception Vector</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUD2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUD0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUD3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUD1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; 5</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +321,14 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,51 +354,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -282,36 +376,143 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -319,15 +520,15 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -345,212 +546,313 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BFBDB6-D247-4BFF-A381-6BB449D25FBC}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,296 +1182,379 @@
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="G2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16">
+      <c r="G4" s="22">
+        <v>25</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
         <v>2</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="36">
         <v>4</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+      <c r="G7" s="36">
+        <v>26</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="40">
         <v>5</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="41" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
+      <c r="G8" s="42">
+        <v>27</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="11">
         <v>6</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30">
         <v>7</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="56">
         <v>4</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="57">
         <v>8</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="60">
+        <v>28</v>
+      </c>
+      <c r="H11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="31" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63">
+        <v>9</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29">
-        <v>9</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63">
+        <v>10</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29">
-        <v>10</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="31" t="s">
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69">
+        <v>11</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29">
-        <v>11</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="40">
         <v>12</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16">
+      <c r="G15" s="42">
+        <v>29</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30">
         <v>13</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="44">
         <v>6</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="45">
         <v>14</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="20">
+      <c r="G17" s="48">
+        <v>30</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51">
         <v>15</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+    </row>
+    <row r="19" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
         <v>7</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G19" s="12">
+        <v>31</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="19">
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
